--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/31.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/31.xlsx
@@ -479,13 +479,13 @@
         <v>-20.89342255506635</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.18599725805443</v>
+        <v>-14.28092954595979</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4972745603735316</v>
+        <v>-0.5474442648630259</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.49159814987333</v>
+        <v>-10.72837244676594</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-20.45416034506399</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.39048593613935</v>
+        <v>-14.48562770089017</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4865650566489997</v>
+        <v>-0.5230533046688902</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.24360374944535</v>
+        <v>-10.48145161517099</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.91101904275678</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.70839323374214</v>
+        <v>-14.79634732423286</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4100012696305856</v>
+        <v>-0.418249420420873</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.822463643935549</v>
+        <v>-10.0545116195023</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.31439517094911</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.16850912481176</v>
+        <v>-15.25617518463996</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3480746771892213</v>
+        <v>-0.3600148573808755</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.606283539412969</v>
+        <v>-9.840321545011664</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.68285740855231</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.61461625184074</v>
+        <v>-15.71229792334286</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3323508214763083</v>
+        <v>-0.3304000683528912</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.417348517104021</v>
+        <v>-9.646175786171709</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-18.04996990631765</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.09256385938079</v>
+        <v>-16.20024805025399</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3457573395862358</v>
+        <v>-0.3481008617949048</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.275990923321903</v>
+        <v>-9.49638674935952</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.42359550613046</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.5994585485039</v>
+        <v>-16.71490647496224</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1301140194801657</v>
+        <v>-0.1241832062928638</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.073597013691661</v>
+        <v>-9.297252823136867</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.82411754159201</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.22493022446452</v>
+        <v>-17.33214309243541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07275121305237968</v>
+        <v>0.03319936616752523</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.097516650983493</v>
+        <v>-9.297671776827801</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.25452548651608</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.64878043666256</v>
+        <v>-17.75011486065752</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1948107524457918</v>
+        <v>0.1845332947150368</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.782437290794514</v>
+        <v>-9.002191593992887</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.70890382488539</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.18066833191052</v>
+        <v>-18.29416550524545</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3206670596633045</v>
+        <v>0.3200255368240599</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.70647574970682</v>
+        <v>-8.915900225963069</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.18001435429738</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.70297266147834</v>
+        <v>-18.81468928162679</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4050076745697038</v>
+        <v>0.381821206237007</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.205001273960185</v>
+        <v>-8.405706276523846</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.63664708410513</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.46584805576288</v>
+        <v>-19.57891318310402</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5427648850703455</v>
+        <v>0.5158602027305985</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.617588922360462</v>
+        <v>-7.818778340129267</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.06328356740782</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.29117373460245</v>
+        <v>-20.40269397020827</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7852474260019541</v>
+        <v>0.747253563155265</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.044132965590019</v>
+        <v>-7.257995732509614</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-13.44474588199712</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.08767016258454</v>
+        <v>-21.21539866910842</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8669433957343247</v>
+        <v>0.838061775665477</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.500736936144179</v>
+        <v>-6.70319630728863</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.76837602644837</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.97507954149957</v>
+        <v>-22.1222763023491</v>
       </c>
       <c r="F16" t="n">
-        <v>1.11349764284971</v>
+        <v>1.094409065306474</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.999956352448156</v>
+        <v>-6.228482498550485</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.04497909593157</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.61380062793602</v>
+        <v>-22.7532336532004</v>
       </c>
       <c r="F17" t="n">
-        <v>1.291134007806249</v>
+        <v>1.265289801996682</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.879363150973018</v>
+        <v>-6.102613099030131</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.28439975259039</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.39562058443253</v>
+        <v>-23.54427059089749</v>
       </c>
       <c r="F18" t="n">
-        <v>1.616634841057243</v>
+        <v>1.593330541998971</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.481226221556128</v>
+        <v>-5.679600794213961</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.50303919888963</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.19620181090124</v>
+        <v>-24.33462672884681</v>
       </c>
       <c r="F19" t="n">
-        <v>1.868190347858167</v>
+        <v>1.835878544444788</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.226646392798765</v>
+        <v>-5.449215541108107</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.725444665540572</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.9478832862561</v>
+        <v>-25.09856259966153</v>
       </c>
       <c r="F20" t="n">
-        <v>2.092252018691467</v>
+        <v>2.04729305073298</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.993799786758666</v>
+        <v>-5.210254829640923</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.965170784250592</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.52729624081953</v>
+        <v>-25.6795597228688</v>
       </c>
       <c r="F21" t="n">
-        <v>2.446346441348791</v>
+        <v>2.412175530931886</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.736981174215368</v>
+        <v>-4.952388832870287</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-8.251340035336241</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.10419547323735</v>
+        <v>-26.25699573970313</v>
       </c>
       <c r="F22" t="n">
-        <v>2.733041688976908</v>
+        <v>2.687375736664968</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.453820848354517</v>
+        <v>-4.627817553121056</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-7.608419639575084</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.60315622683837</v>
+        <v>-26.75911173828901</v>
       </c>
       <c r="F23" t="n">
-        <v>2.929112016334598</v>
+        <v>2.885750309322801</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.299632797787509</v>
+        <v>-4.492128926469407</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-7.051670395989084</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.81917922372685</v>
+        <v>-26.9706833522113</v>
       </c>
       <c r="F24" t="n">
-        <v>3.055976430870923</v>
+        <v>2.992688238934019</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.120962140906473</v>
+        <v>-4.290245616649991</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.597978513222658</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.12230531142133</v>
+        <v>-27.29782072331751</v>
       </c>
       <c r="F25" t="n">
-        <v>3.363121855537817</v>
+        <v>3.301483293758971</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.865465850950188</v>
+        <v>-4.041020539754894</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.24953294429751</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.08994113879659</v>
+        <v>-27.26503759700183</v>
       </c>
       <c r="F26" t="n">
-        <v>3.445315332778173</v>
+        <v>3.365661762289112</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.827000665201197</v>
+        <v>-4.007255490726082</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.00122262048589</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.01826078073814</v>
+        <v>-27.19779552960673</v>
       </c>
       <c r="F27" t="n">
-        <v>3.454532313978748</v>
+        <v>3.374774005066953</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.765479934147927</v>
+        <v>-3.926318874558531</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.845593987121059</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.93314771996408</v>
+        <v>-27.11755280548979</v>
       </c>
       <c r="F28" t="n">
-        <v>3.51522822995299</v>
+        <v>3.455658252023137</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.761198751118682</v>
+        <v>-3.930639334496301</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.76294373994812</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.78638300510833</v>
+        <v>-26.98079061000512</v>
       </c>
       <c r="F29" t="n">
-        <v>3.525309303141119</v>
+        <v>3.449792900350043</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.685629979116239</v>
+        <v>-3.850645364133355</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.739669626472217</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.66976986369707</v>
+        <v>-26.85946423957084</v>
       </c>
       <c r="F30" t="n">
-        <v>3.495720698718818</v>
+        <v>3.429342723311267</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.644952194186996</v>
+        <v>-3.808671441222781</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.760895340222803</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.26428815238597</v>
+        <v>-26.45708540403323</v>
       </c>
       <c r="F31" t="n">
-        <v>3.3887827691076</v>
+        <v>3.321278855655661</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.829894064129219</v>
+        <v>-3.985260421951982</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.808784909802434</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.93074864519016</v>
+        <v>-26.12198791279925</v>
       </c>
       <c r="F32" t="n">
-        <v>3.339529525817027</v>
+        <v>3.276084226246022</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.919471600172308</v>
+        <v>-4.087550584054388</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.872907226165561</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.5117556773464</v>
+        <v>-25.69936837706834</v>
       </c>
       <c r="F33" t="n">
-        <v>3.218687570587895</v>
+        <v>3.164773467485667</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.061902762787446</v>
+        <v>-4.230060300486576</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.946309856530094</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.05465101593038</v>
+        <v>-25.23481419533537</v>
       </c>
       <c r="F34" t="n">
-        <v>3.136310801107754</v>
+        <v>3.089047587849123</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.97758833248673</v>
+        <v>-4.149516453404277</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.024682353431476</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.69749299440809</v>
+        <v>-24.88761941627564</v>
       </c>
       <c r="F35" t="n">
-        <v>2.882974741120355</v>
+        <v>2.845635493415752</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.07262535881482</v>
+        <v>-4.262895796013625</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.111191304608418</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.00315580549999</v>
+        <v>-24.17137880471333</v>
       </c>
       <c r="F36" t="n">
-        <v>2.758754971758058</v>
+        <v>2.728930705884606</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.386997734650347</v>
+        <v>-4.591250751284115</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.208223141378324</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.57109671942019</v>
+        <v>-23.7442686091077</v>
       </c>
       <c r="F37" t="n">
-        <v>2.604684751916626</v>
+        <v>2.57551510118526</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.461244184065775</v>
+        <v>-4.685541516350226</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.320850605435696</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.19560947391948</v>
+        <v>-23.36126638177585</v>
       </c>
       <c r="F38" t="n">
-        <v>2.546554927299362</v>
+        <v>2.52484788918778</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.569321144024224</v>
+        <v>-4.798305520726013</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.459119838712216</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.71817246619026</v>
+        <v>-22.89346530893813</v>
       </c>
       <c r="F39" t="n">
-        <v>2.507042357323033</v>
+        <v>2.456479883748287</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.500259246534119</v>
+        <v>-4.738277312196699</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.626442359239025</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.35808176883143</v>
+        <v>-22.53315204243099</v>
       </c>
       <c r="F40" t="n">
-        <v>2.494159531326774</v>
+        <v>2.460852712897423</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.551567981370843</v>
+        <v>-4.785357233215546</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.827090767183648</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.84208792923332</v>
+        <v>-21.99770304081007</v>
       </c>
       <c r="F41" t="n">
-        <v>2.575960239481879</v>
+        <v>2.524324197074111</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.482728653029048</v>
+        <v>-4.740280434531483</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.067978906019268</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.2222328511918</v>
+        <v>-21.39490723337132</v>
       </c>
       <c r="F42" t="n">
-        <v>2.700337116478277</v>
+        <v>2.660248485176911</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.494498633283759</v>
+        <v>-4.755362767405151</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.349500362998882</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.57015761585679</v>
+        <v>-20.73642986194671</v>
       </c>
       <c r="F43" t="n">
-        <v>2.811386029181797</v>
+        <v>2.765798630686907</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.490309096374407</v>
+        <v>-4.739887665446231</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.676039918236723</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.31532903334543</v>
+        <v>-20.47614178915035</v>
       </c>
       <c r="F44" t="n">
-        <v>2.760064202042231</v>
+        <v>2.722017969984175</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.572790604277281</v>
+        <v>-4.832515708051443</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.045476482855413</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.87533601174355</v>
+        <v>-20.04502534887516</v>
       </c>
       <c r="F45" t="n">
-        <v>2.838984603572155</v>
+        <v>2.799629141229927</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.555037441623901</v>
+        <v>-4.813256930571264</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.449262237942779</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.52370294202047</v>
+        <v>-19.67857179233524</v>
       </c>
       <c r="F46" t="n">
-        <v>2.879884957649708</v>
+        <v>2.854695366982227</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.653779589656199</v>
+        <v>-4.906814526678239</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.882978656481031</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.03996853662437</v>
+        <v>-19.20055872328098</v>
       </c>
       <c r="F47" t="n">
-        <v>2.911437407498267</v>
+        <v>2.867813854429636</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.963962428582373</v>
+        <v>-5.215675043017398</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.332718652687845</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.58329592120212</v>
+        <v>-18.74853387536755</v>
       </c>
       <c r="F48" t="n">
-        <v>2.87603582061424</v>
+        <v>2.843357432721292</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.089962751131144</v>
+        <v>-5.341361150297968</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.787282078811723</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.11601854047808</v>
+        <v>-18.24534430794865</v>
       </c>
       <c r="F49" t="n">
-        <v>2.90455085620352</v>
+        <v>2.854800105404961</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.343861780140738</v>
+        <v>-5.620030816284108</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.23984480686462</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.62774110599591</v>
+        <v>-17.76886303832687</v>
       </c>
       <c r="F50" t="n">
-        <v>2.959669451167186</v>
+        <v>2.910363838665246</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.428634441040915</v>
+        <v>-5.697393233775867</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.67774814545341</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.93852300749892</v>
+        <v>-17.07536375680064</v>
       </c>
       <c r="F51" t="n">
-        <v>2.938695582014741</v>
+        <v>2.883210402571506</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.645403699191372</v>
+        <v>-5.941617050985425</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.09877017951991</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.56210620849645</v>
+        <v>-16.70130357230968</v>
       </c>
       <c r="F52" t="n">
-        <v>2.817801257574243</v>
+        <v>2.764594138825468</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.794695228495575</v>
+        <v>-6.054760732143622</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.49787891985219</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.13970924191385</v>
+        <v>-16.26436105726992</v>
       </c>
       <c r="F53" t="n">
-        <v>2.885226617209132</v>
+        <v>2.831417252529638</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852510837844638</v>
+        <v>-6.115744678780382</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.8694903582129</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.86697038911501</v>
+        <v>-15.98003551645615</v>
       </c>
       <c r="F54" t="n">
-        <v>2.641631230535977</v>
+        <v>2.58947149601454</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.084886120982433</v>
+        <v>-6.376700459021666</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-12.21792545161467</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.53117900583042</v>
+        <v>-15.61816426591085</v>
       </c>
       <c r="F55" t="n">
-        <v>2.480595905582746</v>
+        <v>2.448519763620517</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.29640536569336</v>
+        <v>-6.573818170606693</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.5377096820952</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.12725527855748</v>
+        <v>-15.22396811964932</v>
       </c>
       <c r="F56" t="n">
-        <v>2.425686787464547</v>
+        <v>2.36465047161642</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.497241291285437</v>
+        <v>-6.758707671337549</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.82802812971687</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.58688357106808</v>
+        <v>-14.68275850477804</v>
       </c>
       <c r="F57" t="n">
-        <v>2.384498402724477</v>
+        <v>2.317910950471458</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.763918407868556</v>
+        <v>-7.029718340161279</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-13.08973500741206</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.33853567846338</v>
+        <v>-14.43713381116442</v>
       </c>
       <c r="F58" t="n">
-        <v>2.206966776190671</v>
+        <v>2.139986554852401</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.721368423632947</v>
+        <v>-6.996463890943295</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-13.31791591712848</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.96383397113318</v>
+        <v>-14.05342459947911</v>
       </c>
       <c r="F59" t="n">
-        <v>2.260016787305345</v>
+        <v>2.195183703633118</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.85747600397553</v>
+        <v>-7.140295929962497</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-13.51602454312677</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.85303381218365</v>
+        <v>-13.95110825277102</v>
       </c>
       <c r="F60" t="n">
-        <v>2.079369192695209</v>
+        <v>2.013567278612694</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.821459078857942</v>
+        <v>-7.092129347807787</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.68036401483125</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.52414207249665</v>
+        <v>-13.63488986223481</v>
       </c>
       <c r="F61" t="n">
-        <v>1.957951176141042</v>
+        <v>1.901025843385217</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.153938109523575</v>
+        <v>-7.40875359973209</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.80876511285318</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.22592559836782</v>
+        <v>-13.32956426766292</v>
       </c>
       <c r="F62" t="n">
-        <v>1.879973420415721</v>
+        <v>1.82247202633486</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.192390202969725</v>
+        <v>-7.498462058803597</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.90651097323667</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.89881441186729</v>
+        <v>-12.99136390065545</v>
       </c>
       <c r="F63" t="n">
-        <v>1.811422122736443</v>
+        <v>1.752506759948676</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.315353111259216</v>
+        <v>-7.595659315100571</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.97019030541727</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.65688174765504</v>
+        <v>-12.75582028022996</v>
       </c>
       <c r="F64" t="n">
-        <v>1.696497888391772</v>
+        <v>1.641353108822422</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.494285614197087</v>
+        <v>-7.779134847124521</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-14.00542375237012</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.44563744130378</v>
+        <v>-12.55342637059972</v>
       </c>
       <c r="F65" t="n">
-        <v>1.614828103265085</v>
+        <v>1.571414027041921</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730745695821501</v>
+        <v>-8.011994545467461</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-14.01761503590145</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.21019855930103</v>
+        <v>-12.31716267351793</v>
       </c>
       <c r="F66" t="n">
-        <v>1.545910221106239</v>
+        <v>1.499668207469262</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.849427421081748</v>
+        <v>-8.1180291061826</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.01088536511655</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.02986517995909</v>
+        <v>-12.13849201663689</v>
       </c>
       <c r="F67" t="n">
-        <v>1.603123584524581</v>
+        <v>1.535593486466958</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.817626217479195</v>
+        <v>-8.072559538413286</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-13.99721863034302</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.94069350530409</v>
+        <v>-12.04324551346333</v>
       </c>
       <c r="F68" t="n">
-        <v>1.460129452887249</v>
+        <v>1.401371197733583</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.827078860130921</v>
+        <v>-8.082522780875838</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-13.97835787180422</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.79212205265619</v>
+        <v>-11.90483368782061</v>
       </c>
       <c r="F69" t="n">
-        <v>1.353819953812434</v>
+        <v>1.277648935879272</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.899675679388293</v>
+        <v>-8.142171312622743</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-13.95804235217173</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.69417853509723</v>
+        <v>-11.79733278918719</v>
       </c>
       <c r="F70" t="n">
-        <v>1.399354983095957</v>
+        <v>1.347640386871139</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.84026280909254</v>
+        <v>-8.089042747691018</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-13.94301317320266</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.42538046545376</v>
+        <v>-11.53743748547609</v>
       </c>
       <c r="F71" t="n">
-        <v>1.338501959487614</v>
+        <v>1.280581611715818</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.691246218148013</v>
+        <v>-7.940864064128363</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-13.92811826178988</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.36890027099455</v>
+        <v>-11.48776528849458</v>
       </c>
       <c r="F72" t="n">
-        <v>1.388881140822576</v>
+        <v>1.321115381313802</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.696129647107977</v>
+        <v>-7.935731881414406</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-13.91466464964078</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.33252985370024</v>
+        <v>-11.47189741745041</v>
       </c>
       <c r="F73" t="n">
-        <v>1.362277581448189</v>
+        <v>1.281877749697149</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.574763999765176</v>
+        <v>-7.82320353848977</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-13.89736924904816</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.52828596578972</v>
+        <v>-11.65956248638371</v>
       </c>
       <c r="F74" t="n">
-        <v>1.408571964296532</v>
+        <v>1.326378487056176</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.462772441257052</v>
+        <v>-7.706983166163768</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-13.87093555871157</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.65702257963241</v>
+        <v>-11.78416193252842</v>
       </c>
       <c r="F75" t="n">
-        <v>1.34043962030819</v>
+        <v>1.266022970955819</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.33449405801382</v>
+        <v>-7.560558851181904</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-13.83571707495922</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.99185822480956</v>
+        <v>-12.11736103985035</v>
       </c>
       <c r="F76" t="n">
-        <v>1.36471274977675</v>
+        <v>1.290754331023839</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.133671224724583</v>
+        <v>-7.372396274740616</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-13.78296763279413</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.60315093679259</v>
+        <v>-12.72104712388233</v>
       </c>
       <c r="F77" t="n">
-        <v>1.339287497658118</v>
+        <v>1.265001771334164</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.966377779013007</v>
+        <v>-7.188776727385409</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.71058712243377</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.13153009487897</v>
+        <v>-13.248575282284</v>
       </c>
       <c r="F78" t="n">
-        <v>1.368038194698548</v>
+        <v>1.285137733104739</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.83472158163661</v>
+        <v>-7.056177884204407</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-13.62084727014973</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.62681191138147</v>
+        <v>-13.74841322017542</v>
       </c>
       <c r="F79" t="n">
-        <v>1.42721540354315</v>
+        <v>1.327975748002866</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.662191214788344</v>
+        <v>-6.865750339371501</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-13.50871240730012</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.18466184316457</v>
+        <v>-14.29307920299691</v>
       </c>
       <c r="F80" t="n">
-        <v>1.410771471173942</v>
+        <v>1.361177828009484</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.392489776248787</v>
+        <v>-6.613985355725109</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-13.37842536492321</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.96857656811576</v>
+        <v>-15.06471334788256</v>
       </c>
       <c r="F81" t="n">
-        <v>1.474452432196098</v>
+        <v>1.393934769719482</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.278914049096814</v>
+        <v>-6.499205136711696</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-13.22808001449511</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.72192076593153</v>
+        <v>-15.81939296058817</v>
       </c>
       <c r="F82" t="n">
-        <v>1.505638297565089</v>
+        <v>1.429886233322862</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.193329665420451</v>
+        <v>-6.405791555935981</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-13.06005672382449</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.59089618244541</v>
+        <v>-16.6817305795613</v>
       </c>
       <c r="F83" t="n">
-        <v>1.462721728849911</v>
+        <v>1.378485852366246</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.93217750063654</v>
+        <v>-6.14478340648333</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-12.88181896438832</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.66100864751673</v>
+        <v>-17.75359741321342</v>
       </c>
       <c r="F84" t="n">
-        <v>1.544496252399332</v>
+        <v>1.4785634152884</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.746777400094857</v>
+        <v>-5.959370213638805</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-12.69192314773513</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.47260050067533</v>
+        <v>-18.56614500447946</v>
       </c>
       <c r="F85" t="n">
-        <v>1.537243116625016</v>
+        <v>1.462328959764659</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.541712660684902</v>
+        <v>-5.749382768360361</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-12.49460302361225</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.56220740467798</v>
+        <v>-19.63976620671237</v>
       </c>
       <c r="F86" t="n">
-        <v>1.532608441419045</v>
+        <v>1.46900603421394</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.24314269437934</v>
+        <v>-5.458288506977424</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-12.29368077412362</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.62179365826455</v>
+        <v>-20.71265423998614</v>
       </c>
       <c r="F87" t="n">
-        <v>1.548659604703001</v>
+        <v>1.496971193083867</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.968021042463308</v>
+        <v>-5.176803995880313</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-12.08446205992365</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.98340624610691</v>
+        <v>-22.06833601464119</v>
       </c>
       <c r="F88" t="n">
-        <v>1.602259492537028</v>
+        <v>1.546538651642641</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.659985341203177</v>
+        <v>-4.893119977905793</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-11.86800001871461</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.44720425762893</v>
+        <v>-23.53738403960274</v>
       </c>
       <c r="F89" t="n">
-        <v>1.398202860445885</v>
+        <v>1.340963312421859</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.318773744542112</v>
+        <v>-4.539235032093937</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-11.63493855519533</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.93518375249963</v>
+        <v>-25.03739536078498</v>
       </c>
       <c r="F90" t="n">
-        <v>1.247156962560891</v>
+        <v>1.196123166083843</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.128280738194998</v>
+        <v>-4.344526304231787</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-11.3815780101263</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.58882015522668</v>
+        <v>-26.65323428520797</v>
       </c>
       <c r="F91" t="n">
-        <v>1.080688331928344</v>
+        <v>1.025569736964678</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.087092353454928</v>
+        <v>-4.305458872552077</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-11.10497980857954</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.28600155720531</v>
+        <v>-28.3605491295861</v>
       </c>
       <c r="F92" t="n">
-        <v>0.994632625349679</v>
+        <v>0.9462827509551847</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.840315537191233</v>
+        <v>-4.061837301273238</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-10.79508835608598</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.17768221020063</v>
+        <v>-30.26474602409811</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8710281942209432</v>
+        <v>0.8368441915011965</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.880325614675548</v>
+        <v>-4.112871097750286</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-10.45107196163776</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.3167550176932</v>
+        <v>-32.4101947830746</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7789762129407672</v>
+        <v>0.7657398947677821</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.91622470906756</v>
+        <v>-4.142381148355537</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-10.07443889328732</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.40648293577531</v>
+        <v>-34.50407296115753</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3681397497674032</v>
+        <v>0.3495748643378357</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.9194061386581</v>
+        <v>-4.155866220282515</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.667612309511934</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.4231296193949</v>
+        <v>-36.53171717916418</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08978429904946529</v>
+        <v>0.08674688479018484</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.097343626579999</v>
+        <v>-4.330425894071248</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.245006417739772</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.5555908139524</v>
+        <v>-38.67465221599505</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2393561943915281</v>
+        <v>-0.2370126721828591</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.180375011202226</v>
+        <v>-4.426575766140885</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.814104071668334</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.89603633145356</v>
+        <v>-41.02736522125891</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5004952668725963</v>
+        <v>-0.5051954035927759</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.386709703987829</v>
+        <v>-4.643043901325983</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.396432306422865</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31845275704676</v>
+        <v>-43.44896992407593</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4172936823134271</v>
+        <v>-0.410891546223823</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.706607031622563</v>
+        <v>-4.957128246498992</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.009589522357945</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79957506858227</v>
+        <v>-45.927067913655</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5666113962233129</v>
+        <v>-0.5432416356508318</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.948840818800179</v>
+        <v>-5.19103532906927</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.672809870768853</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.20244468603278</v>
+        <v>-48.34063394252721</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5895883877105421</v>
+        <v>-0.5817460983083482</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.303341102845596</v>
+        <v>-5.554111071476017</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.39477531037801</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.49133271494323</v>
+        <v>-50.62679877244657</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7144627722149254</v>
+        <v>-0.7040412991529114</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.623827584108208</v>
+        <v>-5.861531434502587</v>
       </c>
     </row>
   </sheetData>
